--- a/steps.xlsx
+++ b/steps.xlsx
@@ -1,30 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26215"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lirui/Developer/ChukaIchiBanBackEnd/model/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21060"/>
+    <workbookView windowWidth="28695" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
   <si>
     <t>ID</t>
   </si>
@@ -179,12 +169,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -198,26 +194,342 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -225,12 +537,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -250,21 +801,62 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -525,24 +1117,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.875" style="1" customWidth="1"/>
     <col min="2" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="52.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="52.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="71.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="71.75" style="2" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" ht="27" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -562,7 +1155,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" ht="57" customHeight="1" spans="1:6">
       <c r="A2" s="1">
         <v>100301413</v>
       </c>
@@ -582,7 +1175,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="3" ht="27" spans="1:6">
       <c r="A3" s="1">
         <v>100301413</v>
       </c>
@@ -595,11 +1188,12 @@
       <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="E3" s="1"/>
       <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>100301413</v>
       </c>
@@ -613,7 +1207,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="5" ht="27" spans="1:5">
       <c r="A5" s="1">
         <v>100301413</v>
       </c>
@@ -630,7 +1224,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="6" ht="27" spans="1:6">
       <c r="A6" s="1">
         <v>100301413</v>
       </c>
@@ -650,7 +1244,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" s="3">
         <v>245796</v>
       </c>
@@ -667,7 +1261,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.2">
+    <row r="8" ht="40.5" spans="1:6">
       <c r="A8" s="3">
         <v>245796</v>
       </c>
@@ -687,7 +1281,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.2">
+    <row r="9" ht="40.5" spans="1:6">
       <c r="A9" s="3">
         <v>245796</v>
       </c>
@@ -707,7 +1301,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="10" ht="27" spans="1:6">
       <c r="A10" s="3">
         <v>245796</v>
       </c>
@@ -724,7 +1318,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="11" ht="27" spans="1:6">
       <c r="A11" s="3">
         <v>245796</v>
       </c>
@@ -741,7 +1335,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="12" ht="27" spans="1:6">
       <c r="A12" s="3">
         <v>245796</v>
       </c>
@@ -758,7 +1352,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" ht="53" customHeight="1" spans="1:6">
       <c r="A13" s="3">
         <v>245796</v>
       </c>
@@ -775,7 +1369,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="14" ht="27" spans="1:4">
       <c r="A14" s="3">
         <v>245796</v>
       </c>
@@ -789,7 +1383,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="15" ht="27" spans="1:6">
       <c r="A15" s="3">
         <v>245796</v>
       </c>
@@ -806,7 +1400,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.2">
+    <row r="16" ht="40.5" spans="1:6">
       <c r="A16" s="3">
         <v>245796</v>
       </c>
@@ -823,7 +1417,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" s="3">
         <v>245796</v>
       </c>
@@ -840,7 +1434,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18" s="3">
         <v>245796</v>
       </c>
@@ -857,19 +1451,20 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1">
       <c r="A19" s="3"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1">
       <c r="A20" s="3"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1">
       <c r="A21" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F11" r:id="rId1"/>
+    <hyperlink ref="F11" r:id="rId1" display="http://s2.cdn.xiachufang.com/b8fe746a8c0e11e6a9a10242ac110002_196w_156h.jpg?imageView2/2/w/200/interlace/1/q/90 ; http://s2.cdn.xiachufang.com/b91e4dc68c0e11e6a9a10242ac110002_195w_155h.jpg?imageView2/2/w/200/interlace/1/q/90"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>